--- a/FOAD_Merise/ExercicesModeleConceptuel/GestionEmpruntLivres/Bibliotheque.xlsx
+++ b/FOAD_Merise/ExercicesModeleConceptuel/GestionEmpruntLivres/Bibliotheque.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Merise\ExercicesModeleConceptuel\GestionEmpruntLivres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepos\CDA2005\FOAD_Merise\ExercicesModeleConceptuel\GestionEmpruntLivres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121C7C7A-5966-4168-84E7-22FE553F5070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400FA0FB-8241-4EAC-B394-F5EA68AD0BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{419D6EFF-6129-4BF0-86A6-33FD3D9028EE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
   <si>
     <t>Book_editor</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Book_status</t>
   </si>
   <si>
-    <t>Book_copy</t>
-  </si>
-  <si>
     <t>Client_id</t>
   </si>
   <si>
@@ -71,16 +68,16 @@
     <t>Loan_book</t>
   </si>
   <si>
-    <t>Lon_bookCopy</t>
-  </si>
-  <si>
-    <t>Loan_client</t>
-  </si>
-  <si>
-    <t>Loan_date</t>
-  </si>
-  <si>
     <t>Book_name</t>
+  </si>
+  <si>
+    <t>Book_id</t>
+  </si>
+  <si>
+    <t>Book_copyNumber</t>
+  </si>
+  <si>
+    <t>Book_loanDate</t>
   </si>
 </sst>
 </file>
@@ -166,12 +163,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20 % - Accent1" xfId="2" builtinId="30"/>
@@ -488,98 +492,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF7B7E6-5CB5-40BD-9044-BBBBCA0F2DD3}">
-  <dimension ref="A2:Q26"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
@@ -593,18 +589,14 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
@@ -618,18 +610,14 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
@@ -643,18 +631,14 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="2"/>
@@ -668,18 +652,14 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
@@ -693,18 +673,16 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -718,22 +696,20 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -741,22 +717,18 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -764,37 +736,33 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -802,61 +770,61 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -866,7 +834,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -876,7 +844,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -886,53 +854,83 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
         <v>1</v>
       </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
